--- a/DEMO_Maven/Book1.xlsx
+++ b/DEMO_Maven/Book1.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
-    <t>4.0.1</t>
+    <t>4.1.3</t>
   </si>
   <si>
     <t>IBM.javaapp</t>
@@ -59,9 +59,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
